--- a/data/air_info/西安-乌鲁木齐.xlsx
+++ b/data/air_info/西安-乌鲁木齐.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61780BB3-564A-43DD-B6EC-34AFDB0EBD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768EDE06-5EB4-46B2-8DEB-0CC2958CA0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,27 +33,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
-    <t>行程时间：3 小时 45 分钟</t>
-  </si>
-  <si>
     <t>春航经济舱Airbus A3209C 8845</t>
   </si>
   <si>
-    <t>行程时间：3 小时 40 分钟</t>
-  </si>
-  <si>
     <t>海航经济舱Airbus A330HU 7898</t>
   </si>
   <si>
-    <t>行程时间：3 小时 35 分钟</t>
-  </si>
-  <si>
     <t>江西航空经济舱Boeing 737RY 8939</t>
   </si>
   <si>
-    <t>行程时间：3 小时 30 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Boeing 737CZ 6854</t>
   </si>
   <si>
@@ -63,9 +51,6 @@
     <t>南航经济舱Boeing 737CZ 6015</t>
   </si>
   <si>
-    <t>行程时间：3 小时 25 分钟</t>
-  </si>
-  <si>
     <t>奥凯航空经济舱Boeing 737BK 2933</t>
   </si>
   <si>
@@ -96,8 +81,22 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>3 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 35 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 25 分钟</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +452,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -464,28 +463,27 @@
     <col min="4" max="4" width="12.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="44.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -496,23 +494,22 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>0.60416666666666663</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1500,3000)</f>
-        <v>2903</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -520,23 +517,22 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G9" ca="1" si="0">RANDBETWEEN(1500,3000)</f>
-        <v>2922</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,23 +540,22 @@
         <v>0.49652777777777779</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2171</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -568,23 +563,22 @@
         <v>0.59375</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>0.73958333333333337</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2039</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,23 +586,22 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>0.77777777777777779</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2091</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -616,23 +609,22 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>0.875</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1652</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,23 +632,22 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>0.89583333333333337</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1943</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,23 +655,22 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>0.90625</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1915</v>
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
